--- a/NhapHangV2.API/Template/BigPackageTemplate.xlsx
+++ b/NhapHangV2.API/Template/BigPackageTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lepha\source\repos\NhapHangV2\NhapHangV2.API\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mona\nhaphangv2.monamedia.net\NhapHangV2.API\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B0E5E8-A89A-495A-82A1-8F88B784D52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A47EB83-E0C8-45B0-8D14-FCA7444166AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{BA1DBDF0-58D4-4344-95E9-B6B7FF08423B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{BA1DBDF0-58D4-4344-95E9-B6B7FF08423B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -119,12 +119,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -444,28 +450,28 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="1"/>
+    <col min="7" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -478,14 +484,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">

--- a/NhapHangV2.API/Template/BigPackageTemplate.xlsx
+++ b/NhapHangV2.API/Template/BigPackageTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mona\nhaphangv2.monamedia.net\NhapHangV2.API\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A47EB83-E0C8-45B0-8D14-FCA7444166AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF4F55B-A124-47D3-AFFE-5A4C08A0BD7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{BA1DBDF0-58D4-4344-95E9-B6B7FF08423B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{BA1DBDF0-58D4-4344-95E9-B6B7FF08423B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,22 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>MÃ VẬN ĐƠN</t>
   </si>
@@ -49,9 +39,6 @@
     <t>CÂN NẶNG</t>
   </si>
   <si>
-    <t>KHỐI</t>
-  </si>
-  <si>
     <t>TRẠNG THÁI</t>
   </si>
   <si>
@@ -62,9 +49,6 @@
   </si>
   <si>
     <t>[[%Field:FeeShip%]]</t>
-  </si>
-  <si>
-    <t>[[%Field:Volume%]]</t>
   </si>
   <si>
     <t>[[%Field:Weight%]]</t>
@@ -447,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98031684-74EE-4380-9184-1F35A56265C4}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -459,12 +443,11 @@
     <col min="2" max="2" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.44140625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.77734375" style="1"/>
+    <col min="5" max="5" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -480,28 +463,22 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
